--- a/Users Loads2.xlsx
+++ b/Users Loads2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.914805344685808</v>
+        <v>0.8965421359345447</v>
       </c>
       <c r="C2" t="n">
-        <v>5.473267290852232</v>
+        <v>7.298082327637384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5825086960580432</v>
+        <v>0.3793633423332122</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.102076589372889</v>
+        <v>8.301818418868006</v>
       </c>
       <c r="C3" t="n">
-        <v>3.963730082049969</v>
+        <v>10.44596042146457</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6217614513062273</v>
+        <v>0.4499834365469383</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.241229657889457</v>
+        <v>8.947782835694005</v>
       </c>
       <c r="C4" t="n">
-        <v>6.189520357920693</v>
+        <v>7.91930493012805</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3553770594437315</v>
+        <v>0.1247675139566222</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.870769002769281</v>
+        <v>9.667468786393146</v>
       </c>
       <c r="C5" t="n">
-        <v>3.102529552663873</v>
+        <v>4.796950672110532</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3023596245034924</v>
+        <v>0.2700797743102612</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.803603125388</v>
+        <v>10.28511505101037</v>
       </c>
       <c r="C6" t="n">
-        <v>4.163754866989914</v>
+        <v>8.152230305063135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.518280707916097</v>
+        <v>0.2287448513396756</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.673663133936382</v>
+        <v>10.98187487424624</v>
       </c>
       <c r="C7" t="n">
-        <v>3.213645807884605</v>
+        <v>3.046544535032166</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4548663097063254</v>
+        <v>0.1086383738803665</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.86427518757375</v>
+        <v>18.818786254039</v>
       </c>
       <c r="C8" t="n">
-        <v>4.725289097833614</v>
+        <v>7.217635909333001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3851077869581301</v>
+        <v>0.5934006672536082</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.99225671824594</v>
+        <v>23.52236998060614</v>
       </c>
       <c r="C9" t="n">
-        <v>1.478495210870784</v>
+        <v>3.014971579036672</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3934673310514551</v>
+        <v>0.2614872691718454</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.96751099187689</v>
+        <v>25.48019593760126</v>
       </c>
       <c r="C10" t="n">
-        <v>3.072267063865186</v>
+        <v>3.950647260058438</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4916772738132502</v>
+        <v>0.08690586087957825</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16.51168251097849</v>
+        <v>26.5928910352749</v>
       </c>
       <c r="C11" t="n">
-        <v>6.702616404661191</v>
+        <v>4.284385397189364</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4352767502797253</v>
+        <v>0.1315994566268524</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.10432207820988</v>
+        <v>27.49326239224975</v>
       </c>
       <c r="C12" t="n">
-        <v>3.528142961447325</v>
+        <v>6.281582029500447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08431449885381131</v>
+        <v>0.2554409327148626</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.7370209074072</v>
+        <v>28.67217840174301</v>
       </c>
       <c r="C13" t="n">
-        <v>4.980990120826972</v>
+        <v>3.201656122060723</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4131510111833516</v>
+        <v>0.4409916176385413</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.17597366321492</v>
+        <v>29.0872638478475</v>
       </c>
       <c r="C14" t="n">
-        <v>4.359204444731077</v>
+        <v>5.317349241289044</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5278082753893885</v>
+        <v>0.3481971183012567</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.43154696563615</v>
+        <v>29.13433449792829</v>
       </c>
       <c r="C15" t="n">
-        <v>5.843288292781823</v>
+        <v>1.553110825352895</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5702371704211384</v>
+        <v>0.3827122082263076</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>26.8627702115539</v>
+        <v>33.31344962706875</v>
       </c>
       <c r="C16" t="n">
-        <v>5.507003151283812</v>
+        <v>4.655294150950249</v>
       </c>
       <c r="D16" t="n">
-        <v>0.593300167998222</v>
+        <v>0.2322501791772211</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28.88259142061663</v>
+        <v>33.46626526568765</v>
       </c>
       <c r="C17" t="n">
-        <v>3.204978561317141</v>
+        <v>8.352433481669063</v>
       </c>
       <c r="D17" t="n">
-        <v>0.516528497649858</v>
+        <v>0.3236750229241253</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.58307400735483</v>
+        <v>34.02572465024981</v>
       </c>
       <c r="C18" t="n">
-        <v>8.202188088043854</v>
+        <v>11.97941476008097</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6011606182753072</v>
+        <v>0.3100179782393435</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34.11974872331627</v>
+        <v>36.3041776190417</v>
       </c>
       <c r="C19" t="n">
-        <v>3.32684740250925</v>
+        <v>8.565226556325245</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3516134898863861</v>
+        <v>0.3946103208931769</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.49384685536008</v>
+        <v>37.65866264797165</v>
       </c>
       <c r="C20" t="n">
-        <v>3.13166246674046</v>
+        <v>7.479571030753851</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1878017346894556</v>
+        <v>0.1874095484715846</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>37.96065338362126</v>
+        <v>38.10548982768861</v>
       </c>
       <c r="C21" t="n">
-        <v>4.177452972021094</v>
+        <v>10.39563134747012</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5893540398461995</v>
+        <v>0.3437712512348252</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>38.25896484566578</v>
+        <v>39.77264523000445</v>
       </c>
       <c r="C22" t="n">
-        <v>7.844977247043403</v>
+        <v>4.175622857689618</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3310866813787739</v>
+        <v>0.3497724084131154</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>41.88078878846635</v>
+        <v>43.20031993748078</v>
       </c>
       <c r="C23" t="n">
-        <v>3.290355311742459</v>
+        <v>11.24009649528424</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5922811744476237</v>
+        <v>0.4683312378745402</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>46.41255025571589</v>
+        <v>44.54741048379763</v>
       </c>
       <c r="C24" t="n">
-        <v>2.44086121321901</v>
+        <v>2.366973452469956</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3859462346839457</v>
+        <v>0.2642572928778093</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>46.78526116183011</v>
+        <v>51.26304501211248</v>
       </c>
       <c r="C25" t="n">
-        <v>3.339922312220753</v>
+        <v>5.664425093474009</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2386117123624507</v>
+        <v>0.1239531232626713</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>48.20636815059966</v>
+        <v>56.17732117127385</v>
       </c>
       <c r="C26" t="n">
-        <v>6.653805172725466</v>
+        <v>6.264133485491076</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6173742588055682</v>
+        <v>0.5578644322875541</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>49.48463320479016</v>
+        <v>58.24272937111937</v>
       </c>
       <c r="C27" t="n">
-        <v>2.947107113905743</v>
+        <v>3.592640448893191</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4174181176808532</v>
+        <v>0.06338052830646256</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>51.04838974898962</v>
+        <v>60.32225634069512</v>
       </c>
       <c r="C28" t="n">
-        <v>6.218175459466448</v>
+        <v>7.000308507356961</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3272663036574014</v>
+        <v>0.2503395182458628</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>53.53409529612571</v>
+        <v>61.40327556477762</v>
       </c>
       <c r="C29" t="n">
-        <v>7.861850008842167</v>
+        <v>3.554957739801926</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7324625217739086</v>
+        <v>0.3492449204960844</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>59.69733411367735</v>
+        <v>63.71360383559794</v>
       </c>
       <c r="C30" t="n">
-        <v>3.336573921859081</v>
+        <v>8.975236620318245</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5054658585360876</v>
+        <v>0.1647345946937963</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>62.35290676794623</v>
+        <v>63.77526595337387</v>
       </c>
       <c r="C31" t="n">
-        <v>2.598383256883256</v>
+        <v>4.097891891907183</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4094400383956288</v>
+        <v>0.1880639505245041</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>63.64151220348586</v>
+        <v>64.40688592145388</v>
       </c>
       <c r="C32" t="n">
-        <v>5.554111294850509</v>
+        <v>2.099561012953582</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395684105748231</v>
+        <v>0.3275549533842315</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>64.84293488356646</v>
+        <v>65.21832139009115</v>
       </c>
       <c r="C33" t="n">
-        <v>5.991163330573698</v>
+        <v>6.70856259791403</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4874838613597062</v>
+        <v>0.1952624569355413</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.34664786098719</v>
+        <v>66.71995400204393</v>
       </c>
       <c r="C34" t="n">
-        <v>6.581423489008589</v>
+        <v>7.1703394078268</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5083927474765285</v>
+        <v>0.2436535658656854</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>70.03556727674776</v>
+        <v>68.91523201554011</v>
       </c>
       <c r="C35" t="n">
-        <v>6.54145544255193</v>
+        <v>3.831608558016138</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5811396046771823</v>
+        <v>0.1160557613118831</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>71.61265496210284</v>
+        <v>69.13152289931138</v>
       </c>
       <c r="C36" t="n">
-        <v>6.599786893299386</v>
+        <v>1.599041482900019</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6444343561328304</v>
+        <v>0.1017988927188732</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>72.10337669244703</v>
+        <v>69.983931224157</v>
       </c>
       <c r="C37" t="n">
-        <v>9.002129876845846</v>
+        <v>2.36340673359018</v>
       </c>
       <c r="D37" t="n">
-        <v>0.687555211222364</v>
+        <v>0.3998927538449091</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>76.62383718439749</v>
+        <v>70.83518267337713</v>
       </c>
       <c r="C38" t="n">
-        <v>1.415901016889712</v>
+        <v>7.036870762551326</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2458171436303699</v>
+        <v>0.09968710125389274</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>77.1080852660713</v>
+        <v>71.0925799158456</v>
       </c>
       <c r="C39" t="n">
-        <v>4.52600091576891</v>
+        <v>5.502645871840715</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2729808973091641</v>
+        <v>0.1456503631135305</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>77.6841812282828</v>
+        <v>71.75356046258727</v>
       </c>
       <c r="C40" t="n">
-        <v>2.245219906367066</v>
+        <v>6.178776118242983</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4011032290692284</v>
+        <v>0.1827856557639106</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84.58037353731382</v>
+        <v>73.96119913114121</v>
       </c>
       <c r="C41" t="n">
-        <v>6.370764854996953</v>
+        <v>7.002062737136058</v>
       </c>
       <c r="D41" t="n">
-        <v>0.495054246051478</v>
+        <v>0.2163393333653746</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>86.88044249150694</v>
+        <v>74.25667484109937</v>
       </c>
       <c r="C42" t="n">
-        <v>3.761214311777249</v>
+        <v>5.660801761004527</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3272188572896588</v>
+        <v>0.1711217976112475</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>87.12801121173192</v>
+        <v>74.95352048484533</v>
       </c>
       <c r="C43" t="n">
-        <v>4.436319307130995</v>
+        <v>6.033425315306188</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6931366850220431</v>
+        <v>0.3743429270743347</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>87.25417655907603</v>
+        <v>77.08736680772142</v>
       </c>
       <c r="C44" t="n">
-        <v>3.570084608565576</v>
+        <v>2.42174107131811</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1481520580717683</v>
+        <v>0.2867479474923859</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>88.40715123710761</v>
+        <v>81.34664307608156</v>
       </c>
       <c r="C45" t="n">
-        <v>7.992494938424839</v>
+        <v>7.218925660712713</v>
       </c>
       <c r="D45" t="n">
-        <v>0.607712382172658</v>
+        <v>0.4940824646792574</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89.88501242589881</v>
+        <v>82.81693637586855</v>
       </c>
       <c r="C46" t="n">
-        <v>2.205390864982683</v>
+        <v>5.066452928080667</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2955627178478945</v>
+        <v>0.3976908213298642</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>91.61304612861817</v>
+        <v>83.60154211229916</v>
       </c>
       <c r="C47" t="n">
-        <v>1.45941347713429</v>
+        <v>4.725432490727738</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3181047892828078</v>
+        <v>0.2745508906890788</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>93.75757811118795</v>
+        <v>84.95037815857361</v>
       </c>
       <c r="C48" t="n">
-        <v>4.986450534580653</v>
+        <v>6.321283319039207</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5598573705346315</v>
+        <v>0.2372408024836736</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>95.64416083544664</v>
+        <v>85.03032663603364</v>
       </c>
       <c r="C49" t="n">
-        <v>4.387065089504048</v>
+        <v>4.617281666233332</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6377170580118393</v>
+        <v>0.2729205658817148</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>97.48455968376325</v>
+        <v>86.01175251103095</v>
       </c>
       <c r="C50" t="n">
-        <v>5.019495214725728</v>
+        <v>10.88200036969712</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4940045258294178</v>
+        <v>0.4118126931336475</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,181 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>99.96555302503799</v>
+        <v>88.22207693682422</v>
       </c>
       <c r="C51" t="n">
-        <v>4.430982613953706</v>
+        <v>2.887266122394368</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5831301647441773</v>
+        <v>0.2550296144280473</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>88.57435570029567</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.512145844283001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2515291654005461</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>88.77953230338134</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.463196103702572</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2724970337183749</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>88.82572052857141</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.195073832557399</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.3865686048792937</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>89.58705122668877</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7.235776631826199</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.4113387269621717</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>90.71992526648373</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.696900735059289</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.131162580236482</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>91.20784857875849</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13.00601327863072</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.2538352883080532</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>91.74988232384278</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.075549233350856</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.3879230531443659</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>95.22375525248776</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9.520392423245179</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.3617930538542745</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>95.84877420139662</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10.63566223379511</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.3849580136699124</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>96.35609221045229</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.568308354398348</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2754575048962948</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>97.38858239107668</v>
+      </c>
+      <c r="C62" t="n">
+        <v>11.06933794918109</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.388725925939909</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>99.35901017263028</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8.102563093620835</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.3341511500749703</v>
       </c>
     </row>
   </sheetData>
